--- a/20211128 休斯顿世乒赛 女单半决赛 陈梦vs王曼昱-collect_project(new)(陈梦习惯性出手线路情况).xlsx
+++ b/20211128 休斯顿世乒赛 女单半决赛 陈梦vs王曼昱-collect_project(new)(陈梦习惯性出手线路情况).xlsx
@@ -47,8 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -346,1048 +349,1339 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="5.4" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="7.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="14.2" customWidth="1" min="9" max="9"/>
+    <col width="18.6" customWidth="1" min="10" max="10"/>
+    <col width="14.2" customWidth="1" min="11" max="11"/>
+    <col width="14.2" customWidth="1" min="12" max="12"/>
+    <col width="14.2" customWidth="1" min="13" max="13"/>
+    <col width="18.6" customWidth="1" min="14" max="14"/>
+    <col width="14.2" customWidth="1" min="15" max="15"/>
+    <col width="14.2" customWidth="1" min="16" max="16"/>
+    <col width="14.2" customWidth="1" min="17" max="17"/>
+    <col width="18.6" customWidth="1" min="18" max="18"/>
+    <col width="14.2" customWidth="1" min="19" max="19"/>
+    <col width="14.2" customWidth="1" min="20" max="20"/>
+    <col width="16.4" customWidth="1" min="21" max="21"/>
+    <col width="20.8" customWidth="1" min="22" max="22"/>
+    <col width="16.4" customWidth="1" min="23" max="23"/>
+    <col width="16.4" customWidth="1" min="24" max="24"/>
+    <col width="20.8" customWidth="1" min="25" max="25"/>
+    <col width="16.4" customWidth="1" min="26" max="26"/>
+    <col width="16.4" customWidth="1" min="27" max="27"/>
+    <col width="20.8" customWidth="1" min="28" max="28"/>
+    <col width="16.4" customWidth="1" min="29" max="29"/>
+    <col width="5.4" customWidth="1" min="30" max="30"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" t="inlineStr">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>反手半出台</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>反手长</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>反手短</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>正手半出台</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>正手短</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>中路半出台</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>中路长</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>中路短</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>发球落点</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>得分</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="n"/>
+      <c r="S2" s="1" t="n"/>
+      <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="n"/>
+      <c r="W2" s="1" t="n"/>
+      <c r="X2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="n"/>
+      <c r="AA2" s="1" t="n"/>
+      <c r="AB2" s="1" t="n"/>
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>失分</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n"/>
+      <c r="AB4" s="1" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>反手给斜线</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>正手给斜线</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>反手给直线</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>正手给直线</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>反手给反手半出台</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>反手给中路长</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>正手给反手半出台</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>正手给中路长</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="1" t="inlineStr">
         <is>
           <t>侧身给反手半出台</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="1" t="inlineStr">
         <is>
           <t>侧身给中路长</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手半出台</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路半出台</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手短</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB5" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手半出台</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC5" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手长</t>
+        </is>
+      </c>
+      <c r="AD5" s="1" t="inlineStr">
+        <is>
+          <t>合计</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>接发球</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>得分</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
+      <c r="T6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n"/>
+      <c r="AA7" s="1" t="n"/>
+      <c r="AB7" s="1" t="n"/>
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>反手给斜线</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>正手给斜线</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="1" t="inlineStr">
         <is>
           <t>反手给直线</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>正手给直线</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="inlineStr">
         <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="1" t="inlineStr">
         <is>
           <t>反手给反手半出台</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="1" t="inlineStr">
         <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="1" t="inlineStr">
         <is>
           <t>反手给中路长</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="1" t="inlineStr">
         <is>
           <t>正手给反手半出台</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="1" t="inlineStr">
         <is>
           <t>正手给中路长</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="1" t="inlineStr">
         <is>
           <t>侧身给反手半出台</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="1" t="inlineStr">
         <is>
           <t>侧身给中路长</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手半出台</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路半出台</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA8" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手短</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB8" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手半出台</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AC8" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手长</t>
+        </is>
+      </c>
+      <c r="AD8" s="1" t="inlineStr">
+        <is>
+          <t>合计</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>第三拍</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>得分</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="n"/>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n"/>
+      <c r="AA10" s="1" t="n"/>
+      <c r="AB10" s="1" t="n"/>
+      <c r="AC10" s="1" t="n"/>
+      <c r="AD10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>反手给斜线</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>正手给斜线</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>反手给直线</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>正手给直线</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="1" t="inlineStr">
         <is>
           <t>反手给反手半出台</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="1" t="inlineStr">
         <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="1" t="inlineStr">
         <is>
           <t>反手给中路长</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="1" t="inlineStr">
         <is>
           <t>正手给反手半出台</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="1" t="inlineStr">
         <is>
           <t>正手给中路长</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="1" t="inlineStr">
         <is>
           <t>侧身给反手半出台</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="1" t="inlineStr">
         <is>
           <t>侧身给中路长</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手半出台</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W11" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路半出台</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA11" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手短</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB11" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手半出台</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC11" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手长</t>
+        </is>
+      </c>
+      <c r="AD11" s="1" t="inlineStr">
+        <is>
+          <t>合计</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>第四拍</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>得分</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
+      <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="n"/>
+      <c r="O13" s="1" t="n"/>
+      <c r="P13" s="1" t="n"/>
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="1" t="n"/>
+      <c r="S13" s="1" t="n"/>
+      <c r="T13" s="1" t="n"/>
+      <c r="U13" s="1" t="n"/>
+      <c r="V13" s="1" t="n"/>
+      <c r="W13" s="1" t="n"/>
+      <c r="X13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="1" t="n"/>
+      <c r="AA13" s="1" t="n"/>
+      <c r="AB13" s="1" t="n"/>
+      <c r="AC13" s="1" t="n"/>
+      <c r="AD13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>反手给斜线</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>正手给斜线</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="1" t="inlineStr">
         <is>
           <t>反手给直线</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>正手给直线</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="inlineStr">
         <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="1" t="inlineStr">
         <is>
           <t>反手给反手半出台</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="1" t="inlineStr">
         <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="1" t="inlineStr">
         <is>
           <t>反手给中路长</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="1" t="inlineStr">
         <is>
           <t>正手给反手半出台</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P14" s="1" t="inlineStr">
         <is>
           <t>正手给中路长</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R14" s="1" t="inlineStr">
         <is>
           <t>侧身给反手半出台</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T14" s="1" t="inlineStr">
         <is>
           <t>侧身给中路长</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手半出台</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W14" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X14" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路半出台</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="Z14" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AA14" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手短</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AB14" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手半出台</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC14" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手长</t>
+        </is>
+      </c>
+      <c r="AD14" s="1" t="inlineStr">
+        <is>
+          <t>合计</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>陈梦相持</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>得分</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
+      <c r="T15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>王曼昱相持</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>得分</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="n"/>
+      <c r="O16" s="1" t="n"/>
+      <c r="P16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="1" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
+      <c r="X16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="1" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/20211128 休斯顿世乒赛 女单半决赛 陈梦vs王曼昱-collect_project(new)(陈梦习惯性出手线路情况).xlsx
+++ b/20211128 休斯顿世乒赛 女单半决赛 陈梦vs王曼昱-collect_project(new)(陈梦习惯性出手线路情况).xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,24 +369,43 @@
     <col width="18.6" customWidth="1" min="10" max="10"/>
     <col width="14.2" customWidth="1" min="11" max="11"/>
     <col width="14.2" customWidth="1" min="12" max="12"/>
-    <col width="14.2" customWidth="1" min="13" max="13"/>
-    <col width="18.6" customWidth="1" min="14" max="14"/>
+    <col width="18.6" customWidth="1" min="13" max="13"/>
+    <col width="14.2" customWidth="1" min="14" max="14"/>
     <col width="14.2" customWidth="1" min="15" max="15"/>
-    <col width="14.2" customWidth="1" min="16" max="16"/>
+    <col width="18.6" customWidth="1" min="16" max="16"/>
     <col width="14.2" customWidth="1" min="17" max="17"/>
-    <col width="18.6" customWidth="1" min="18" max="18"/>
+    <col width="16.4" customWidth="1" min="18" max="18"/>
     <col width="14.2" customWidth="1" min="19" max="19"/>
-    <col width="14.2" customWidth="1" min="20" max="20"/>
-    <col width="16.4" customWidth="1" min="21" max="21"/>
-    <col width="20.8" customWidth="1" min="22" max="22"/>
-    <col width="16.4" customWidth="1" min="23" max="23"/>
-    <col width="16.4" customWidth="1" min="24" max="24"/>
-    <col width="20.8" customWidth="1" min="25" max="25"/>
-    <col width="16.4" customWidth="1" min="26" max="26"/>
-    <col width="16.4" customWidth="1" min="27" max="27"/>
-    <col width="20.8" customWidth="1" min="28" max="28"/>
-    <col width="16.4" customWidth="1" min="29" max="29"/>
-    <col width="5.4" customWidth="1" min="30" max="30"/>
+    <col width="18.6" customWidth="1" min="20" max="20"/>
+    <col width="14.2" customWidth="1" min="21" max="21"/>
+    <col width="14.2" customWidth="1" min="22" max="22"/>
+    <col width="18.6" customWidth="1" min="23" max="23"/>
+    <col width="14.2" customWidth="1" min="24" max="24"/>
+    <col width="14.2" customWidth="1" min="25" max="25"/>
+    <col width="18.6" customWidth="1" min="26" max="26"/>
+    <col width="14.2" customWidth="1" min="27" max="27"/>
+    <col width="16.4" customWidth="1" min="28" max="28"/>
+    <col width="14.2" customWidth="1" min="29" max="29"/>
+    <col width="18.6" customWidth="1" min="30" max="30"/>
+    <col width="14.2" customWidth="1" min="31" max="31"/>
+    <col width="14.2" customWidth="1" min="32" max="32"/>
+    <col width="18.6" customWidth="1" min="33" max="33"/>
+    <col width="14.2" customWidth="1" min="34" max="34"/>
+    <col width="14.2" customWidth="1" min="35" max="35"/>
+    <col width="18.6" customWidth="1" min="36" max="36"/>
+    <col width="14.2" customWidth="1" min="37" max="37"/>
+    <col width="16.4" customWidth="1" min="38" max="38"/>
+    <col width="16.4" customWidth="1" min="39" max="39"/>
+    <col width="20.8" customWidth="1" min="40" max="40"/>
+    <col width="16.4" customWidth="1" min="41" max="41"/>
+    <col width="16.4" customWidth="1" min="42" max="42"/>
+    <col width="20.8" customWidth="1" min="43" max="43"/>
+    <col width="16.4" customWidth="1" min="44" max="44"/>
+    <col width="16.4" customWidth="1" min="45" max="45"/>
+    <col width="20.8" customWidth="1" min="46" max="46"/>
+    <col width="16.4" customWidth="1" min="47" max="47"/>
+    <col width="18.6" customWidth="1" min="48" max="48"/>
+    <col width="5.4" customWidth="1" min="49" max="49"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,6 +475,25 @@
       <c r="AB1" s="1" t="n"/>
       <c r="AC1" s="1" t="n"/>
       <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -514,6 +552,25 @@
       <c r="AB2" s="1" t="n"/>
       <c r="AC2" s="1" t="n"/>
       <c r="AD2" s="1" t="n"/>
+      <c r="AE2" s="1" t="n"/>
+      <c r="AF2" s="1" t="n"/>
+      <c r="AG2" s="1" t="n"/>
+      <c r="AH2" s="1" t="n"/>
+      <c r="AI2" s="1" t="n"/>
+      <c r="AJ2" s="1" t="n"/>
+      <c r="AK2" s="1" t="n"/>
+      <c r="AL2" s="1" t="n"/>
+      <c r="AM2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="1" t="n"/>
+      <c r="AP2" s="1" t="n"/>
+      <c r="AQ2" s="1" t="n"/>
+      <c r="AR2" s="1" t="n"/>
+      <c r="AS2" s="1" t="n"/>
+      <c r="AT2" s="1" t="n"/>
+      <c r="AU2" s="1" t="n"/>
+      <c r="AV2" s="1" t="n"/>
+      <c r="AW2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -568,6 +625,25 @@
       <c r="AB3" s="1" t="n"/>
       <c r="AC3" s="1" t="n"/>
       <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AJ3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
+      <c r="AN3" s="1" t="n"/>
+      <c r="AO3" s="1" t="n"/>
+      <c r="AP3" s="1" t="n"/>
+      <c r="AQ3" s="1" t="n"/>
+      <c r="AR3" s="1" t="n"/>
+      <c r="AS3" s="1" t="n"/>
+      <c r="AT3" s="1" t="n"/>
+      <c r="AU3" s="1" t="n"/>
+      <c r="AV3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -600,6 +676,25 @@
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="n"/>
       <c r="AD4" s="1" t="n"/>
+      <c r="AE4" s="1" t="n"/>
+      <c r="AF4" s="1" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+      <c r="AH4" s="1" t="n"/>
+      <c r="AI4" s="1" t="n"/>
+      <c r="AJ4" s="1" t="n"/>
+      <c r="AK4" s="1" t="n"/>
+      <c r="AL4" s="1" t="n"/>
+      <c r="AM4" s="1" t="n"/>
+      <c r="AN4" s="1" t="n"/>
+      <c r="AO4" s="1" t="n"/>
+      <c r="AP4" s="1" t="n"/>
+      <c r="AQ4" s="1" t="n"/>
+      <c r="AR4" s="1" t="n"/>
+      <c r="AS4" s="1" t="n"/>
+      <c r="AT4" s="1" t="n"/>
+      <c r="AU4" s="1" t="n"/>
+      <c r="AV4" s="1" t="n"/>
+      <c r="AW4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -632,110 +727,205 @@
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="inlineStr">
         <is>
+          <t>反手给反手短</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>反手给反手半出台</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>反手给反手半出台</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>反手给反手长</t>
-        </is>
-      </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
+          <t>反手给中路短</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>反手给中路半出台</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
           <t>反手给中路长</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手短</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手半出台</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手长</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>反手给擦网擦边</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>正手给反手短</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>正手给反手半出台</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
-        <is>
-          <t>正手给反手半出台</t>
-        </is>
-      </c>
-      <c r="O5" s="1" t="inlineStr">
-        <is>
-          <t>正手给反手长</t>
-        </is>
-      </c>
-      <c r="P5" s="1" t="inlineStr">
+      <c r="V5" s="1" t="inlineStr">
+        <is>
+          <t>正手给中路短</t>
+        </is>
+      </c>
+      <c r="W5" s="1" t="inlineStr">
+        <is>
+          <t>正手给中路半出台</t>
+        </is>
+      </c>
+      <c r="X5" s="1" t="inlineStr">
         <is>
           <t>正手给中路长</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
+      <c r="Y5" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手短</t>
+        </is>
+      </c>
+      <c r="Z5" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手半出台</t>
+        </is>
+      </c>
+      <c r="AA5" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手长</t>
+        </is>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>正手给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="inlineStr">
+        <is>
+          <t>侧身给反手短</t>
+        </is>
+      </c>
+      <c r="AD5" s="1" t="inlineStr">
+        <is>
+          <t>侧身给反手半出台</t>
+        </is>
+      </c>
+      <c r="AE5" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="R5" s="1" t="inlineStr">
-        <is>
-          <t>侧身给反手半出台</t>
-        </is>
-      </c>
-      <c r="S5" s="1" t="inlineStr">
-        <is>
-          <t>侧身给反手长</t>
-        </is>
-      </c>
-      <c r="T5" s="1" t="inlineStr">
+      <c r="AF5" s="1" t="inlineStr">
+        <is>
+          <t>侧身给中路短</t>
+        </is>
+      </c>
+      <c r="AG5" s="1" t="inlineStr">
+        <is>
+          <t>侧身给中路半出台</t>
+        </is>
+      </c>
+      <c r="AH5" s="1" t="inlineStr">
         <is>
           <t>侧身给中路长</t>
         </is>
       </c>
-      <c r="U5" s="1" t="inlineStr">
+      <c r="AI5" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手短</t>
+        </is>
+      </c>
+      <c r="AJ5" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手半出台</t>
+        </is>
+      </c>
+      <c r="AK5" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手长</t>
+        </is>
+      </c>
+      <c r="AL5" s="1" t="inlineStr">
+        <is>
+          <t>侧身给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AM5" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给反手短</t>
+        </is>
+      </c>
+      <c r="AN5" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给反手半出台</t>
+        </is>
+      </c>
+      <c r="AO5" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="V5" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给反手半出台</t>
-        </is>
-      </c>
-      <c r="W5" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给反手长</t>
-        </is>
-      </c>
-      <c r="X5" s="1" t="inlineStr">
+      <c r="AP5" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给中路短</t>
+        </is>
+      </c>
+      <c r="AQ5" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给中路半出台</t>
+        </is>
+      </c>
+      <c r="AR5" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="Y5" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给中路半出台</t>
-        </is>
-      </c>
-      <c r="Z5" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给中路长</t>
-        </is>
-      </c>
-      <c r="AA5" s="1" t="inlineStr">
+      <c r="AS5" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手短</t>
         </is>
       </c>
-      <c r="AB5" s="1" t="inlineStr">
+      <c r="AT5" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手半出台</t>
         </is>
       </c>
-      <c r="AC5" s="1" t="inlineStr">
+      <c r="AU5" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手长</t>
         </is>
       </c>
-      <c r="AD5" s="1" t="inlineStr">
+      <c r="AV5" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AW5" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
@@ -784,38 +974,38 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="n">
+      <c r="V6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" s="1" t="n">
         <v>0</v>
       </c>
@@ -823,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="1" t="n">
         <v>0</v>
@@ -832,6 +1022,63 @@
         <v>0</v>
       </c>
       <c r="AD6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -866,6 +1113,25 @@
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
+      <c r="AE7" s="1" t="n"/>
+      <c r="AF7" s="1" t="n"/>
+      <c r="AG7" s="1" t="n"/>
+      <c r="AH7" s="1" t="n"/>
+      <c r="AI7" s="1" t="n"/>
+      <c r="AJ7" s="1" t="n"/>
+      <c r="AK7" s="1" t="n"/>
+      <c r="AL7" s="1" t="n"/>
+      <c r="AM7" s="1" t="n"/>
+      <c r="AN7" s="1" t="n"/>
+      <c r="AO7" s="1" t="n"/>
+      <c r="AP7" s="1" t="n"/>
+      <c r="AQ7" s="1" t="n"/>
+      <c r="AR7" s="1" t="n"/>
+      <c r="AS7" s="1" t="n"/>
+      <c r="AT7" s="1" t="n"/>
+      <c r="AU7" s="1" t="n"/>
+      <c r="AV7" s="1" t="n"/>
+      <c r="AW7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -898,110 +1164,205 @@
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="inlineStr">
         <is>
+          <t>反手给反手短</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>反手给反手半出台</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>反手给反手半出台</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>反手给反手长</t>
-        </is>
-      </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
+          <t>反手给中路短</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>反手给中路半出台</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
           <t>反手给中路长</t>
         </is>
       </c>
-      <c r="M8" s="1" t="inlineStr">
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手短</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手半出台</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手长</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>反手给擦网擦边</t>
+        </is>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>正手给反手短</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="inlineStr">
+        <is>
+          <t>正手给反手半出台</t>
+        </is>
+      </c>
+      <c r="U8" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="N8" s="1" t="inlineStr">
-        <is>
-          <t>正手给反手半出台</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>正手给反手长</t>
-        </is>
-      </c>
-      <c r="P8" s="1" t="inlineStr">
+      <c r="V8" s="1" t="inlineStr">
+        <is>
+          <t>正手给中路短</t>
+        </is>
+      </c>
+      <c r="W8" s="1" t="inlineStr">
+        <is>
+          <t>正手给中路半出台</t>
+        </is>
+      </c>
+      <c r="X8" s="1" t="inlineStr">
         <is>
           <t>正手给中路长</t>
         </is>
       </c>
-      <c r="Q8" s="1" t="inlineStr">
+      <c r="Y8" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手短</t>
+        </is>
+      </c>
+      <c r="Z8" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手半出台</t>
+        </is>
+      </c>
+      <c r="AA8" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手长</t>
+        </is>
+      </c>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>正手给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="inlineStr">
+        <is>
+          <t>侧身给反手短</t>
+        </is>
+      </c>
+      <c r="AD8" s="1" t="inlineStr">
+        <is>
+          <t>侧身给反手半出台</t>
+        </is>
+      </c>
+      <c r="AE8" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="R8" s="1" t="inlineStr">
-        <is>
-          <t>侧身给反手半出台</t>
-        </is>
-      </c>
-      <c r="S8" s="1" t="inlineStr">
-        <is>
-          <t>侧身给反手长</t>
-        </is>
-      </c>
-      <c r="T8" s="1" t="inlineStr">
+      <c r="AF8" s="1" t="inlineStr">
+        <is>
+          <t>侧身给中路短</t>
+        </is>
+      </c>
+      <c r="AG8" s="1" t="inlineStr">
+        <is>
+          <t>侧身给中路半出台</t>
+        </is>
+      </c>
+      <c r="AH8" s="1" t="inlineStr">
         <is>
           <t>侧身给中路长</t>
         </is>
       </c>
-      <c r="U8" s="1" t="inlineStr">
+      <c r="AI8" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手短</t>
+        </is>
+      </c>
+      <c r="AJ8" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手半出台</t>
+        </is>
+      </c>
+      <c r="AK8" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手长</t>
+        </is>
+      </c>
+      <c r="AL8" s="1" t="inlineStr">
+        <is>
+          <t>侧身给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AM8" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给反手短</t>
+        </is>
+      </c>
+      <c r="AN8" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给反手半出台</t>
+        </is>
+      </c>
+      <c r="AO8" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="V8" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给反手半出台</t>
-        </is>
-      </c>
-      <c r="W8" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给反手长</t>
-        </is>
-      </c>
-      <c r="X8" s="1" t="inlineStr">
+      <c r="AP8" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给中路短</t>
+        </is>
+      </c>
+      <c r="AQ8" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给中路半出台</t>
+        </is>
+      </c>
+      <c r="AR8" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="Y8" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给中路半出台</t>
-        </is>
-      </c>
-      <c r="Z8" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给中路长</t>
-        </is>
-      </c>
-      <c r="AA8" s="1" t="inlineStr">
+      <c r="AS8" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手短</t>
         </is>
       </c>
-      <c r="AB8" s="1" t="inlineStr">
+      <c r="AT8" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手半出台</t>
         </is>
       </c>
-      <c r="AC8" s="1" t="inlineStr">
+      <c r="AU8" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手长</t>
         </is>
       </c>
-      <c r="AD8" s="1" t="inlineStr">
+      <c r="AV8" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AW8" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
@@ -1050,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>0</v>
@@ -1059,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R9" s="1" t="n">
         <v>0</v>
@@ -1089,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="1" t="n">
         <v>0</v>
@@ -1098,6 +1459,63 @@
         <v>0</v>
       </c>
       <c r="AD9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1132,6 +1550,25 @@
       <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="n"/>
       <c r="AD10" s="1" t="n"/>
+      <c r="AE10" s="1" t="n"/>
+      <c r="AF10" s="1" t="n"/>
+      <c r="AG10" s="1" t="n"/>
+      <c r="AH10" s="1" t="n"/>
+      <c r="AI10" s="1" t="n"/>
+      <c r="AJ10" s="1" t="n"/>
+      <c r="AK10" s="1" t="n"/>
+      <c r="AL10" s="1" t="n"/>
+      <c r="AM10" s="1" t="n"/>
+      <c r="AN10" s="1" t="n"/>
+      <c r="AO10" s="1" t="n"/>
+      <c r="AP10" s="1" t="n"/>
+      <c r="AQ10" s="1" t="n"/>
+      <c r="AR10" s="1" t="n"/>
+      <c r="AS10" s="1" t="n"/>
+      <c r="AT10" s="1" t="n"/>
+      <c r="AU10" s="1" t="n"/>
+      <c r="AV10" s="1" t="n"/>
+      <c r="AW10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -1164,110 +1601,205 @@
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="inlineStr">
         <is>
+          <t>反手给反手短</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>反手给反手半出台</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>反手给反手半出台</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>反手给反手长</t>
-        </is>
-      </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
+          <t>反手给中路短</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>反手给中路半出台</t>
+        </is>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
           <t>反手给中路长</t>
         </is>
       </c>
-      <c r="M11" s="1" t="inlineStr">
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手短</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手半出台</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手长</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
+        <is>
+          <t>反手给擦网擦边</t>
+        </is>
+      </c>
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>正手给反手短</t>
+        </is>
+      </c>
+      <c r="T11" s="1" t="inlineStr">
+        <is>
+          <t>正手给反手半出台</t>
+        </is>
+      </c>
+      <c r="U11" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="N11" s="1" t="inlineStr">
-        <is>
-          <t>正手给反手半出台</t>
-        </is>
-      </c>
-      <c r="O11" s="1" t="inlineStr">
-        <is>
-          <t>正手给反手长</t>
-        </is>
-      </c>
-      <c r="P11" s="1" t="inlineStr">
+      <c r="V11" s="1" t="inlineStr">
+        <is>
+          <t>正手给中路短</t>
+        </is>
+      </c>
+      <c r="W11" s="1" t="inlineStr">
+        <is>
+          <t>正手给中路半出台</t>
+        </is>
+      </c>
+      <c r="X11" s="1" t="inlineStr">
         <is>
           <t>正手给中路长</t>
         </is>
       </c>
-      <c r="Q11" s="1" t="inlineStr">
+      <c r="Y11" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手短</t>
+        </is>
+      </c>
+      <c r="Z11" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手半出台</t>
+        </is>
+      </c>
+      <c r="AA11" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手长</t>
+        </is>
+      </c>
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>正手给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="inlineStr">
+        <is>
+          <t>侧身给反手短</t>
+        </is>
+      </c>
+      <c r="AD11" s="1" t="inlineStr">
+        <is>
+          <t>侧身给反手半出台</t>
+        </is>
+      </c>
+      <c r="AE11" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="R11" s="1" t="inlineStr">
-        <is>
-          <t>侧身给反手半出台</t>
-        </is>
-      </c>
-      <c r="S11" s="1" t="inlineStr">
-        <is>
-          <t>侧身给反手长</t>
-        </is>
-      </c>
-      <c r="T11" s="1" t="inlineStr">
+      <c r="AF11" s="1" t="inlineStr">
+        <is>
+          <t>侧身给中路短</t>
+        </is>
+      </c>
+      <c r="AG11" s="1" t="inlineStr">
+        <is>
+          <t>侧身给中路半出台</t>
+        </is>
+      </c>
+      <c r="AH11" s="1" t="inlineStr">
         <is>
           <t>侧身给中路长</t>
         </is>
       </c>
-      <c r="U11" s="1" t="inlineStr">
+      <c r="AI11" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手短</t>
+        </is>
+      </c>
+      <c r="AJ11" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手半出台</t>
+        </is>
+      </c>
+      <c r="AK11" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手长</t>
+        </is>
+      </c>
+      <c r="AL11" s="1" t="inlineStr">
+        <is>
+          <t>侧身给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AM11" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给反手短</t>
+        </is>
+      </c>
+      <c r="AN11" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给反手半出台</t>
+        </is>
+      </c>
+      <c r="AO11" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="V11" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给反手半出台</t>
-        </is>
-      </c>
-      <c r="W11" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给反手长</t>
-        </is>
-      </c>
-      <c r="X11" s="1" t="inlineStr">
+      <c r="AP11" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给中路短</t>
+        </is>
+      </c>
+      <c r="AQ11" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给中路半出台</t>
+        </is>
+      </c>
+      <c r="AR11" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="Y11" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给中路半出台</t>
-        </is>
-      </c>
-      <c r="Z11" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给中路长</t>
-        </is>
-      </c>
-      <c r="AA11" s="1" t="inlineStr">
+      <c r="AS11" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手短</t>
         </is>
       </c>
-      <c r="AB11" s="1" t="inlineStr">
+      <c r="AT11" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手半出台</t>
         </is>
       </c>
-      <c r="AC11" s="1" t="inlineStr">
+      <c r="AU11" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手长</t>
         </is>
       </c>
-      <c r="AD11" s="1" t="inlineStr">
+      <c r="AV11" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AW11" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
@@ -1319,26 +1851,26 @@
         <v>0</v>
       </c>
       <c r="O12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="V12" s="1" t="n">
         <v>0</v>
       </c>
@@ -1355,15 +1887,72 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AD12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="1" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1398,6 +1987,25 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
+      <c r="AE13" s="1" t="n"/>
+      <c r="AF13" s="1" t="n"/>
+      <c r="AG13" s="1" t="n"/>
+      <c r="AH13" s="1" t="n"/>
+      <c r="AI13" s="1" t="n"/>
+      <c r="AJ13" s="1" t="n"/>
+      <c r="AK13" s="1" t="n"/>
+      <c r="AL13" s="1" t="n"/>
+      <c r="AM13" s="1" t="n"/>
+      <c r="AN13" s="1" t="n"/>
+      <c r="AO13" s="1" t="n"/>
+      <c r="AP13" s="1" t="n"/>
+      <c r="AQ13" s="1" t="n"/>
+      <c r="AR13" s="1" t="n"/>
+      <c r="AS13" s="1" t="n"/>
+      <c r="AT13" s="1" t="n"/>
+      <c r="AU13" s="1" t="n"/>
+      <c r="AV13" s="1" t="n"/>
+      <c r="AW13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -1430,110 +2038,205 @@
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="inlineStr">
         <is>
+          <t>反手给反手短</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>反手给反手半出台</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
           <t>反手给反手长</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>反手给反手半出台</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>反手给反手长</t>
-        </is>
-      </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
+          <t>反手给中路短</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>反手给中路半出台</t>
+        </is>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
           <t>反手给中路长</t>
         </is>
       </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="O14" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手短</t>
+        </is>
+      </c>
+      <c r="P14" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手半出台</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
+          <t>反手给正手长</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="inlineStr">
+        <is>
+          <t>反手给擦网擦边</t>
+        </is>
+      </c>
+      <c r="S14" s="1" t="inlineStr">
+        <is>
+          <t>正手给反手短</t>
+        </is>
+      </c>
+      <c r="T14" s="1" t="inlineStr">
+        <is>
+          <t>正手给反手半出台</t>
+        </is>
+      </c>
+      <c r="U14" s="1" t="inlineStr">
         <is>
           <t>正手给反手长</t>
         </is>
       </c>
-      <c r="N14" s="1" t="inlineStr">
-        <is>
-          <t>正手给反手半出台</t>
-        </is>
-      </c>
-      <c r="O14" s="1" t="inlineStr">
-        <is>
-          <t>正手给反手长</t>
-        </is>
-      </c>
-      <c r="P14" s="1" t="inlineStr">
+      <c r="V14" s="1" t="inlineStr">
+        <is>
+          <t>正手给中路短</t>
+        </is>
+      </c>
+      <c r="W14" s="1" t="inlineStr">
+        <is>
+          <t>正手给中路半出台</t>
+        </is>
+      </c>
+      <c r="X14" s="1" t="inlineStr">
         <is>
           <t>正手给中路长</t>
         </is>
       </c>
-      <c r="Q14" s="1" t="inlineStr">
+      <c r="Y14" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手短</t>
+        </is>
+      </c>
+      <c r="Z14" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手半出台</t>
+        </is>
+      </c>
+      <c r="AA14" s="1" t="inlineStr">
+        <is>
+          <t>正手给正手长</t>
+        </is>
+      </c>
+      <c r="AB14" s="1" t="inlineStr">
+        <is>
+          <t>正手给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AC14" s="1" t="inlineStr">
+        <is>
+          <t>侧身给反手短</t>
+        </is>
+      </c>
+      <c r="AD14" s="1" t="inlineStr">
+        <is>
+          <t>侧身给反手半出台</t>
+        </is>
+      </c>
+      <c r="AE14" s="1" t="inlineStr">
         <is>
           <t>侧身给反手长</t>
         </is>
       </c>
-      <c r="R14" s="1" t="inlineStr">
-        <is>
-          <t>侧身给反手半出台</t>
-        </is>
-      </c>
-      <c r="S14" s="1" t="inlineStr">
-        <is>
-          <t>侧身给反手长</t>
-        </is>
-      </c>
-      <c r="T14" s="1" t="inlineStr">
+      <c r="AF14" s="1" t="inlineStr">
+        <is>
+          <t>侧身给中路短</t>
+        </is>
+      </c>
+      <c r="AG14" s="1" t="inlineStr">
+        <is>
+          <t>侧身给中路半出台</t>
+        </is>
+      </c>
+      <c r="AH14" s="1" t="inlineStr">
         <is>
           <t>侧身给中路长</t>
         </is>
       </c>
-      <c r="U14" s="1" t="inlineStr">
+      <c r="AI14" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手短</t>
+        </is>
+      </c>
+      <c r="AJ14" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手半出台</t>
+        </is>
+      </c>
+      <c r="AK14" s="1" t="inlineStr">
+        <is>
+          <t>侧身给正手长</t>
+        </is>
+      </c>
+      <c r="AL14" s="1" t="inlineStr">
+        <is>
+          <t>侧身给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AM14" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给反手短</t>
+        </is>
+      </c>
+      <c r="AN14" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给反手半出台</t>
+        </is>
+      </c>
+      <c r="AO14" s="1" t="inlineStr">
         <is>
           <t>反侧身给反手长</t>
         </is>
       </c>
-      <c r="V14" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给反手半出台</t>
-        </is>
-      </c>
-      <c r="W14" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给反手长</t>
-        </is>
-      </c>
-      <c r="X14" s="1" t="inlineStr">
+      <c r="AP14" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给中路短</t>
+        </is>
+      </c>
+      <c r="AQ14" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给中路半出台</t>
+        </is>
+      </c>
+      <c r="AR14" s="1" t="inlineStr">
         <is>
           <t>反侧身给中路长</t>
         </is>
       </c>
-      <c r="Y14" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给中路半出台</t>
-        </is>
-      </c>
-      <c r="Z14" s="1" t="inlineStr">
-        <is>
-          <t>反侧身给中路长</t>
-        </is>
-      </c>
-      <c r="AA14" s="1" t="inlineStr">
+      <c r="AS14" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手短</t>
         </is>
       </c>
-      <c r="AB14" s="1" t="inlineStr">
+      <c r="AT14" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手半出台</t>
         </is>
       </c>
-      <c r="AC14" s="1" t="inlineStr">
+      <c r="AU14" s="1" t="inlineStr">
         <is>
           <t>反侧身给正手长</t>
         </is>
       </c>
-      <c r="AD14" s="1" t="inlineStr">
+      <c r="AV14" s="1" t="inlineStr">
+        <is>
+          <t>反侧身给擦网擦边</t>
+        </is>
+      </c>
+      <c r="AW14" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
@@ -1582,54 +2285,111 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="P15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="n">
+      <c r="V15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AF15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1" t="n">
         <v>34</v>
       </c>
     </row>
@@ -1682,6 +2442,25 @@
       <c r="AB16" s="1" t="n"/>
       <c r="AC16" s="1" t="n"/>
       <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
+      <c r="AF16" s="1" t="n"/>
+      <c r="AG16" s="1" t="n"/>
+      <c r="AH16" s="1" t="n"/>
+      <c r="AI16" s="1" t="n"/>
+      <c r="AJ16" s="1" t="n"/>
+      <c r="AK16" s="1" t="n"/>
+      <c r="AL16" s="1" t="n"/>
+      <c r="AM16" s="1" t="n"/>
+      <c r="AN16" s="1" t="n"/>
+      <c r="AO16" s="1" t="n"/>
+      <c r="AP16" s="1" t="n"/>
+      <c r="AQ16" s="1" t="n"/>
+      <c r="AR16" s="1" t="n"/>
+      <c r="AS16" s="1" t="n"/>
+      <c r="AT16" s="1" t="n"/>
+      <c r="AU16" s="1" t="n"/>
+      <c r="AV16" s="1" t="n"/>
+      <c r="AW16" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
